--- a/ComputerConfigurator/Resources/PowerSupply.xlsx
+++ b/ComputerConfigurator/Resources/PowerSupply.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>Название</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>https://www.dns-shop.ru/product/ec3a54c509413332/blok-pitania-corsair-cx750f-rgb-cp-9020218-eu/</t>
-  </si>
-  <si>
-    <t>end</t>
   </si>
 </sst>
 </file>
@@ -567,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1128,11 +1125,6 @@
       </c>
       <c r="H21" s="2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="D22" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
